--- a/biology/Zoologie/Dimophora_longicornis/Dimophora_longicornis.xlsx
+++ b/biology/Zoologie/Dimophora_longicornis/Dimophora_longicornis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nemeritis longicornis
 Dimophora longicornis est une espèce fossile d'insectes hyménoptères de la famille des Ichneumonidae et du genre Dimophora.
@@ -512,15 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nemeritis longicornis est décrit en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse[1],[2]. 
-Fossiles
-Le spécimen holotype Am12 vient des collections du Muséum national d'histoire naturelle de Paris, et provient du gypse d'Aix-en-Provence dans les Bouches-du-Rhône. Il est aussi connu au Muséum national d'histoire naturelle de Paris sous la référence B24398[3].
-Étymologie
-L'épithète spécifique longcornis signifie en latin « longue corniche ».
-Renommage
-Nemeritis longicornis est renommé en Dimophora longicornis par Tamara Spasojevic (d) et al. en 2022[4],[2]. Selon « leur opinion », le genre Dimophora appartient à la sous-famille Cremastinae et donc les espèces associées.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nemeritis longicornis est décrit en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse,. 
 </t>
         </is>
       </c>
@@ -546,18 +554,206 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le spécimen holotype Am12 vient des collections du Muséum national d'histoire naturelle de Paris, et provient du gypse d'Aix-en-Provence dans les Bouches-du-Rhône. Il est aussi connu au Muséum national d'histoire naturelle de Paris sous la référence B24398.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dimophora_longicornis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dimophora_longicornis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique longcornis signifie en latin « longue corniche ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dimophora_longicornis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dimophora_longicornis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Renommage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nemeritis longicornis est renommé en Dimophora longicornis par Tamara Spasojevic (d) et al. en 2022,. Selon « leur opinion », le genre Dimophora appartient à la sous-famille Cremastinae et donc les espèces associées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dimophora_longicornis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dimophora_longicornis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald de 1937[1],[note 1] : 
-« Insecte de teinte noire sur corps, tarière et cuisses ; tibias et stigmas bruns. Tête petite, transversale ; deux gros yeux non contigus ; antennes filiformes, plus longues que le thorax, articles homonomes ; cou net ; thorax ovale. abdomen allongé, longuement pétiolé, comprimé ; 1er segment long, étroit, légèrement conique ; 2e segment plus court et plus large ; les 4 suivants sont plus larges que longs; le dernier porte une tarière, dont la longueur dépasse de beaucoup celle de l'abdomen. Pattes grêles. Ailes transparentes ; aréole subtriangulaire, légèrement déjetée vers le sommet de l'aile, pas de ramellus, stigma large. »[1].
-Dimensions
-La longueur du corps est de 3,5 mm, les antennes ont une longueur 3 mm, la tarière a une longueur 4,25 mm , les ailes ont une longueur 3 mm[1].
-Affinités
-« L'échantillon appartient certainement à la sous-famille des Ophioninae. Pimpla Renevieri Meunier (p. 463, fig. 3) appartient peut-être à cette espèce; mais la description et la figure de F. Meunier ne permettent pas de faire une détermination. »[1].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald de 1937,[note 1] : 
+« Insecte de teinte noire sur corps, tarière et cuisses ; tibias et stigmas bruns. Tête petite, transversale ; deux gros yeux non contigus ; antennes filiformes, plus longues que le thorax, articles homonomes ; cou net ; thorax ovale. abdomen allongé, longuement pétiolé, comprimé ; 1er segment long, étroit, légèrement conique ; 2e segment plus court et plus large ; les 4 suivants sont plus larges que longs; le dernier porte une tarière, dont la longueur dépasse de beaucoup celle de l'abdomen. Pattes grêles. Ailes transparentes ; aréole subtriangulaire, légèrement déjetée vers le sommet de l'aile, pas de ramellus, stigma large. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dimophora_longicornis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dimophora_longicornis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur du corps est de 3,5 mm, les antennes ont une longueur 3 mm, la tarière a une longueur 4,25 mm , les ailes ont une longueur 3 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dimophora_longicornis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dimophora_longicornis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« L'échantillon appartient certainement à la sous-famille des Ophioninae. Pimpla Renevieri Meunier (p. 463, fig. 3) appartient peut-être à cette espèce; mais la description et la figure de F. Meunier ne permettent pas de faire une détermination. ».
 </t>
         </is>
       </c>
